--- a/allCategory_grouping.xlsx
+++ b/allCategory_grouping.xlsx
@@ -108,78 +108,339 @@
     <t>control</t>
   </si>
   <si>
+    <t>library</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>framework</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>package</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>engine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrapper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>software</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>toolkit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>database</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>environment/ide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>widget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/app</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adapter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>suite</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>converter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>term</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>algorithm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>compiler</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">model </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>approach</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>command/cms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>format</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>technical</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>service/server</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>program</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>machanism</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>structure</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>extension</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>implementation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>system</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>solution</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>utility</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>campany</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>subclass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>concept</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>container</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>advice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>architecture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>integration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acronym</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>browser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>repository</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>network</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>rdbms</t>
-  </si>
-  <si>
-    <t>library</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>framework</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>plugin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>platform</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>package</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>engine</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>wrapper</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>software</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>toolkit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>database</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>environment/ide</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>widget</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/app</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>kit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adapter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>suite</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -187,275 +448,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>mapper</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>converter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbms</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>api</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>function</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>term</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>algorithm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>compiler</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">model </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>approach</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>syntax</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>command/cms</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>error</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gui</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>language</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>process</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>module</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>format</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>technical</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>service/server</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>program</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>machanism</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>structure</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>client</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>interface</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>extension</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>implementation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>system</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>solution</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>utility</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>campany</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>element</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>editor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>product</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>subclass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>concept</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pattern</t>
+    <t>shell</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>provider</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>port</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>layer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>container</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>task</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>advice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyword</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>architecture</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>integration</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>parser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acronym</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>browser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>operation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>view</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>repository</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>network</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>shell</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -592,8 +593,176 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -707,7 +876,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="267">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -757,6 +926,90 @@
     <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -806,6 +1059,90 @@
     <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1135,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1152,37 +1489,39 @@
     <col min="7" max="7" width="22.33203125" style="7" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" style="8" customWidth="1"/>
     <col min="9" max="9" width="14" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="10"/>
-    <col min="11" max="11" width="10.83203125" style="11"/>
+    <col min="10" max="10" width="12.6640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="18" style="11" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>74</v>
+      <c r="F1" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>100</v>
+        <v>77</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>5</v>
@@ -1190,61 +1529,66 @@
       <c r="K1" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" t="s">
         <v>18</v>
       </c>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>77</v>
+        <v>51</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>111</v>
+        <v>80</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>7</v>
@@ -1252,347 +1596,408 @@
       <c r="K3" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>84</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1"/>
+      <c r="E12" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1"/>
+      <c r="E13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="E14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="2"/>
+      <c r="I15" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="I16" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="5" t="s">
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="M24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="M25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="2"/>
+      <c r="M26" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="2"/>
+      <c r="M27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="2"/>
+      <c r="M28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="2"/>
+      <c r="M29" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="2"/>
+      <c r="M30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="2"/>
+      <c r="G31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="2"/>
+      <c r="G32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34"/>
+      <c r="G34" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="I34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="8"/>
+      <c r="G35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="2"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:13">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:13">
       <c r="A42" s="1"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:13">
       <c r="A45" s="1"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:13">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:13">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1">

--- a/allCategory_grouping.xlsx
+++ b/allCategory_grouping.xlsx
@@ -144,319 +144,319 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>database</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>environment/ide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>widget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/app</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adapter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>suite</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>converter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>term</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>algorithm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>compiler</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">model </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>approach</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>command/cms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>format</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>technical</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>service/server</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>program</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>machanism</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>structure</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>extension</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>implementation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>system</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>solution</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>utility</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>campany</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>subclass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>concept</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>container</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>advice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>architecture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>integration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acronym</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>browser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>repository</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>network</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdbms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>syntax</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>provider</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>toolkit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>database</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>environment/ide</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>widget</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/app</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>kit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adapter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>suite</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mapper</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>converter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbms</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>api</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>function</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>term</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>algorithm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>compiler</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">model </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>approach</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>command/cms</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>error</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gui</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>language</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>process</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>module</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>format</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>technical</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>service/server</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>program</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>machanism</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>structure</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>client</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>interface</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>extension</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>implementation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>system</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>solution</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>utility</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>campany</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>element</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>editor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>product</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>subclass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>concept</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pattern</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>port</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>layer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>container</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>task</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>advice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyword</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>architecture</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>integration</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>parser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acronym</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>browser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>operation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>view</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>repository</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>network</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdbms</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>syntax</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>shell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>provider</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -593,8 +593,92 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="267">
+  <cellStyleXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -876,7 +960,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="267">
+  <cellStyles count="351">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1010,6 +1094,48 @@
     <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1143,6 +1269,48 @@
     <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1474,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1503,25 +1671,25 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>5</v>
@@ -1530,10 +1698,10 @@
         <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N1" t="s">
         <v>18</v>
@@ -1545,28 +1713,31 @@
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>28</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M2" s="2"/>
     </row>
@@ -1576,19 +1747,19 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>7</v>
@@ -1597,7 +1768,7 @@
         <v>20</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M3" s="2"/>
     </row>
@@ -1607,16 +1778,16 @@
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>26</v>
@@ -1628,10 +1799,10 @@
         <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>4</v>
@@ -1643,8 +1814,11 @@
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>10</v>
@@ -1653,10 +1827,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="M7" s="2"/>
     </row>
@@ -1665,9 +1836,6 @@
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:15">
@@ -1678,57 +1846,29 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="E11" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1"/>
-      <c r="E12" s="5" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1"/>
-      <c r="E13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="E14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2"/>
-      <c r="I15" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="I16" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:13">
       <c r="I17" s="5"/>
@@ -1744,264 +1884,334 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="M23" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="M24" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="M25" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="2"/>
-      <c r="M26" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4"/>
       <c r="B27" s="6"/>
       <c r="C27" s="8"/>
       <c r="D27" s="2"/>
-      <c r="M27" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4"/>
       <c r="B28" s="6"/>
       <c r="C28" s="8"/>
       <c r="D28" s="2"/>
-      <c r="M28" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4"/>
       <c r="B29" s="6"/>
       <c r="C29" s="8"/>
       <c r="D29" s="2"/>
-      <c r="M29" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4"/>
       <c r="B30" s="6"/>
       <c r="C30" s="8"/>
       <c r="D30" s="2"/>
-      <c r="M30" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4"/>
       <c r="B31" s="6"/>
       <c r="C31" s="8"/>
       <c r="D31" s="2"/>
-      <c r="G31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="6"/>
+      <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4"/>
       <c r="B32" s="6"/>
       <c r="C32" s="8"/>
       <c r="D32" s="2"/>
-      <c r="G32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="6"/>
+      <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4"/>
       <c r="B33" s="6"/>
       <c r="C33" s="8"/>
       <c r="D33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="G33" s="6"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="6"/>
+      <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4"/>
       <c r="B34" s="6"/>
       <c r="C34" s="8"/>
       <c r="D34"/>
-      <c r="G34" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="G34" s="4"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4"/>
       <c r="B35" s="6"/>
       <c r="C35" s="8"/>
-      <c r="G35" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="G35" s="4"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:13">
       <c r="B37" s="6"/>
+      <c r="G37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="G38" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="2"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="2"/>
+      <c r="A41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M41" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="1"/>
+      <c r="A42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="5"/>
+      <c r="F43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="M44" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1"/>
+      <c r="M45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="2"/>
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="2"/>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2"/>

--- a/allCategory_grouping.xlsx
+++ b/allCategory_grouping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="allCategory副本.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>binding</t>
   </si>
@@ -457,6 +457,10 @@
   </si>
   <si>
     <t>toolkit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ide</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -593,8 +597,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="351">
+  <cellStyleXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -960,7 +1004,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="351">
+  <cellStyles count="391">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1136,6 +1180,26 @@
     <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1311,6 +1375,26 @@
     <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1642,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1700,10 +1784,7 @@
       <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
       <c r="O1" s="1"/>
@@ -1719,7 +1800,7 @@
         <v>89</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>21</v>
@@ -1758,9 +1839,7 @@
       <c r="G3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="H3" s="7"/>
       <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1780,14 +1859,8 @@
       <c r="C4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="F4" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>26</v>
@@ -1800,12 +1873,6 @@
       </c>
       <c r="C5" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="M5" s="2"/>
     </row>
@@ -1817,12 +1884,6 @@
       <c r="C6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:15">
@@ -1839,38 +1900,66 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:15">
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:15">
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:15">
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:15">
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:13">
+      <c r="B17" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="I17" s="5"/>
     </row>
     <row r="20" spans="1:13">
@@ -1883,9 +1972,7 @@
       <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
         <v>69</v>
       </c>
@@ -1913,14 +2000,14 @@
       <c r="J23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>55</v>
+      <c r="K23" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>45</v>
+      <c r="M23" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1934,7 +2021,12 @@
         <v>105</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="M24" s="1"/>
+      <c r="G24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
@@ -1943,20 +2035,20 @@
       <c r="B25" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>0</v>
+      <c r="C25" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="2"/>
       <c r="M26" s="1"/>
     </row>
@@ -2012,7 +2104,7 @@
       <c r="K32" s="6"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:14">
       <c r="A33" s="4"/>
       <c r="B33" s="6"/>
       <c r="C33" s="8"/>
@@ -2023,7 +2115,7 @@
       <c r="K33" s="6"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:14">
       <c r="A34" s="4"/>
       <c r="B34" s="6"/>
       <c r="C34" s="8"/>
@@ -2033,22 +2125,22 @@
       <c r="J34" s="8"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:14">
       <c r="A35" s="4"/>
       <c r="B35" s="6"/>
       <c r="C35" s="8"/>
       <c r="G35" s="4"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:14">
       <c r="A36" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>15</v>
+      <c r="C36" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>113</v>
@@ -2077,9 +2169,18 @@
       <c r="L36" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="M36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="B37" s="6"/>
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G37" s="4" t="s">
         <v>79</v>
       </c>
@@ -2090,15 +2191,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:14">
+      <c r="E38" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G38" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:14">
       <c r="A39" s="2"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:14">
       <c r="A41" s="5" t="s">
         <v>91</v>
       </c>
@@ -2129,14 +2233,17 @@
       <c r="J41" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="K41" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="L41" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M41" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:14">
       <c r="A42" s="5" t="s">
         <v>93</v>
       </c>
@@ -2158,20 +2265,21 @@
       <c r="G42" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="H42" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="I42" s="8" t="s">
         <v>1</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="L42" s="1"/>
       <c r="M42" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:14">
       <c r="A43" s="5" t="s">
         <v>97</v>
       </c>
@@ -2180,37 +2288,25 @@
       <c r="F43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="M44" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1"/>
-      <c r="M45" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="1"/>
     </row>
     <row r="53" spans="1:1">

--- a/allCategory_grouping.xlsx
+++ b/allCategory_grouping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>binding</t>
   </si>
@@ -256,10 +256,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>format</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>object</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -296,10 +292,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>extension</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>implementation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -360,107 +352,111 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>container</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>advice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>architecture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>integration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acronym</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>browser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>repository</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>network</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdbms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>syntax</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>provider</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>toolkit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>layer</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>container</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>task</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>advice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyword</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>architecture</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>integration</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>parser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acronym</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>browser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>operation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>view</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>repository</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>network</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdbms</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>syntax</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>shell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>provider</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>kit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>toolkit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ide</t>
+    <t>format／extension</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -597,8 +593,84 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="391">
+  <cellStyleXfs count="467">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1004,7 +1076,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="391">
+  <cellStyles count="467">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1200,6 +1272,44 @@
     <cellStyle name="超链接" xfId="385" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="387" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="465" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1395,6 +1505,44 @@
     <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="466" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1726,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1758,7 +1906,7 @@
         <v>48</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>65</v>
@@ -1767,13 +1915,13 @@
         <v>24</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>5</v>
@@ -1786,6 +1934,9 @@
       </c>
       <c r="M1" t="s">
         <v>18</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="O1" s="1"/>
     </row>
@@ -1796,24 +1947,15 @@
       <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>102</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="H2" s="7"/>
       <c r="K2" s="11" t="s">
         <v>28</v>
       </c>
@@ -1831,23 +1973,15 @@
         <v>50</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="K3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M3" s="2"/>
     </row>
@@ -1859,12 +1993,7 @@
       <c r="C4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="F4" s="7"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:15">
@@ -1882,7 +2011,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M6" s="2"/>
     </row>
@@ -1900,9 +2029,6 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:15">
@@ -1910,11 +2036,35 @@
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="M11" s="2"/>
     </row>
@@ -1958,26 +2108,43 @@
     </row>
     <row r="17" spans="1:13">
       <c r="B17" s="1" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="B19" s="8" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1"/>
+      <c r="B22"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>52</v>
@@ -1989,7 +2156,7 @@
         <v>60</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>58</v>
@@ -2001,53 +2168,39 @@
         <v>56</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="G24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="G24" s="4"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="M25" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4"/>
-      <c r="B26" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
       <c r="M26" s="1"/>
@@ -2074,10 +2227,24 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13">
@@ -2129,7 +2296,9 @@
       <c r="A35" s="4"/>
       <c r="B35" s="6"/>
       <c r="C35" s="8"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:14">
@@ -2140,22 +2309,20 @@
         <v>53</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>12</v>
@@ -2164,129 +2331,104 @@
         <v>3</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>0</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14">
       <c r="B37" s="6"/>
       <c r="E37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:14">
       <c r="E38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="E41" s="6"/>
       <c r="F41" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M41" t="s">
-        <v>115</v>
-      </c>
+      <c r="K41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>95</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="F42" s="5"/>
       <c r="G42" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="6"/>
       <c r="L42" s="1"/>
-      <c r="M42" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="5"/>
-      <c r="F43" s="4" t="s">
-        <v>92</v>
+      <c r="F43" s="4"/>
+      <c r="H43" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2298,16 +2440,42 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="M45" s="1"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1"/>
+      <c r="E46" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="1"/>
+      <c r="A48" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2"/>
